--- a/Excel/EposBuff.xlsx
+++ b/Excel/EposBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E83C0C-5F06-4E38-9127-AD0007678012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61753EC9-1D17-4D06-9D79-E5DD0F39E1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C862CF6-66E8-4BE7-A1D5-A27354365D8C}"/>
   </bookViews>
@@ -16,28 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,11 +46,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseType</t>
+    <t>OnRangeAttack</t>
+  </si>
+  <si>
+    <t>BuffType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OnRangeAttack</t>
+    <t>UseCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,199 +449,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E493D4-484A-4A72-8290-AD51E77EAA33}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B3" s="1">
         <v>10002</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B4" s="1">
         <v>10003</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
+        <v>100004</v>
+      </c>
+      <c r="B5" s="1">
         <v>10004</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
+        <v>100005</v>
+      </c>
+      <c r="B6" s="1">
         <v>10005</v>
       </c>
-      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
+        <v>100006</v>
+      </c>
+      <c r="B7" s="1">
         <v>10006</v>
       </c>
-      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
+        <v>100007</v>
+      </c>
+      <c r="B8" s="1">
         <v>10007</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
+        <v>100008</v>
+      </c>
+      <c r="B9" s="1">
         <v>10008</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
+        <v>100009</v>
+      </c>
+      <c r="B10" s="1">
         <v>10009</v>
       </c>
-      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
+        <v>100010</v>
+      </c>
+      <c r="B11" s="1">
         <v>10010</v>
       </c>
-      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
+        <v>100011</v>
+      </c>
+      <c r="B12" s="1">
         <v>10011</v>
       </c>
-      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
+        <v>100012</v>
+      </c>
+      <c r="B13" s="1">
         <v>10012</v>
       </c>
-      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
+        <v>100013</v>
+      </c>
+      <c r="B14" s="1">
         <v>10013</v>
       </c>
-      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{BB95866E-4EA7-4509-BA68-6014B99F9F46}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{BB95866E-4EA7-4509-BA68-6014B99F9F46}">
       <formula1>"OnRangeAttack,         OnMeleeAttack,         OnHit,         OnItemObtain,         None"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{1CC56D8B-9271-44C5-ABE0-E5F2C858BE3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{1CC56D8B-9271-44C5-ABE0-E5F2C858BE3D}">
       <formula1>"MaxHp, Atk, AtkRange, Def, DmgTake, CritProb, CritDmg, MoveSpeed, Sight,Damage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{35EA2EBA-16B5-497D-84E6-F4EB377C617A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{35EA2EBA-16B5-497D-84E6-F4EB377C617A}">
       <formula1>"Value, Ratio"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{3B4D799E-780D-4066-98DE-A38358936D2B}">
+      <formula1>"StatBuff,ItemBuff"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EposBuff.xlsx
+++ b/Excel/EposBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61753EC9-1D17-4D06-9D79-E5DD0F39E1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02A923A-F5DF-458A-990C-87FBA7F2FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C862CF6-66E8-4BE7-A1D5-A27354365D8C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>StatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,7 +53,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GroupIndex</t>
+    <t>ValueType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,270 +445,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E493D4-484A-4A72-8290-AD51E77EAA33}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>100001</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>100002</v>
-      </c>
-      <c r="B3" s="1">
         <v>10002</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>100003</v>
-      </c>
-      <c r="B4" s="1">
         <v>10003</v>
       </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>100004</v>
-      </c>
-      <c r="B5" s="1">
         <v>10004</v>
       </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>100005</v>
-      </c>
-      <c r="B6" s="1">
         <v>10005</v>
       </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>100006</v>
-      </c>
-      <c r="B7" s="1">
         <v>10006</v>
       </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>100007</v>
-      </c>
-      <c r="B8" s="1">
         <v>10007</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>100008</v>
-      </c>
-      <c r="B9" s="1">
         <v>10008</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>100009</v>
-      </c>
-      <c r="B10" s="1">
         <v>10009</v>
       </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>100010</v>
-      </c>
-      <c r="B11" s="1">
         <v>10010</v>
       </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>100011</v>
-      </c>
-      <c r="B12" s="1">
         <v>10011</v>
       </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>100012</v>
-      </c>
-      <c r="B13" s="1">
         <v>10012</v>
       </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>100013</v>
-      </c>
-      <c r="B14" s="1">
         <v>10013</v>
       </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{BB95866E-4EA7-4509-BA68-6014B99F9F46}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{BB95866E-4EA7-4509-BA68-6014B99F9F46}">
       <formula1>"OnRangeAttack,         OnMeleeAttack,         OnHit,         OnItemObtain,         None"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{1CC56D8B-9271-44C5-ABE0-E5F2C858BE3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{1CC56D8B-9271-44C5-ABE0-E5F2C858BE3D}">
       <formula1>"MaxHp, Atk, AtkRange, Def, DmgTake, CritProb, CritDmg, MoveSpeed, Sight,Damage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{35EA2EBA-16B5-497D-84E6-F4EB377C617A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{35EA2EBA-16B5-497D-84E6-F4EB377C617A}">
       <formula1>"Value, Ratio"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{3B4D799E-780D-4066-98DE-A38358936D2B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{3B4D799E-780D-4066-98DE-A38358936D2B}">
       <formula1>"StatBuff,ItemBuff"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EposBuff.xlsx
+++ b/Excel/EposBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02A923A-F5DF-458A-990C-87FBA7F2FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4746F12F-CB58-4D74-B0DA-A5886A6D3E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C862CF6-66E8-4BE7-A1D5-A27354365D8C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,11 +49,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UseCondition</t>
+    <t>ValueType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ValueType</t>
+    <t>ActiveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffCondition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffCondition2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemBuff</t>
+  </si>
+  <si>
+    <t>OnItemObtain</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>StatBuff</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ConditionParam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,19 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E493D4-484A-4A72-8290-AD51E77EAA33}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="8" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -465,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -474,102 +516,280 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>10002</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>10003</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>10004</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>10005</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>10006</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10007</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>10008</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>10009</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10010</v>
       </c>
@@ -578,8 +798,11 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10011</v>
       </c>
@@ -588,8 +811,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10012</v>
       </c>
@@ -598,8 +824,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>10013</v>
       </c>
@@ -608,46 +837,64 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/EposBuff.xlsx
+++ b/Excel/EposBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4746F12F-CB58-4D74-B0DA-A5886A6D3E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18776E16-DDF9-4CC8-9DE4-AF820EF8C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C862CF6-66E8-4BE7-A1D5-A27354365D8C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuffCondition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffCondition2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemBuff</t>
   </si>
   <si>
@@ -94,6 +86,10 @@
   </si>
   <si>
     <t>ConditionParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffCondition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,21 +481,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E493D4-484A-4A72-8290-AD51E77EAA33}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="8" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -519,33 +515,30 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
@@ -553,243 +546,216 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>10004</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>10008</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>10009</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10010</v>
       </c>
@@ -800,9 +766,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10011</v>
       </c>
@@ -813,9 +778,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10012</v>
       </c>
@@ -826,9 +790,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>10013</v>
       </c>
@@ -839,9 +802,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -850,9 +812,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -861,9 +822,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -872,9 +832,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -883,9 +842,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -894,7 +852,6 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -903,7 +860,7 @@
       <formula1>"OnRangeAttack,         OnMeleeAttack,         OnHit,         OnItemObtain,         None"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{1CC56D8B-9271-44C5-ABE0-E5F2C858BE3D}">
-      <formula1>"MaxHp, Atk, AtkRange, Def, DmgTake, CritProb, CritDmg, MoveSpeed, Sight,Damage"</formula1>
+      <formula1>"MaxHp, Atk, AtkRange, Def, DmgReduce, CritProb, CritDmg, MoveSpeed, Sight,Damage"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{35EA2EBA-16B5-497D-84E6-F4EB377C617A}">
       <formula1>"Value, Ratio"</formula1>

--- a/Excel/EposBuff.xlsx
+++ b/Excel/EposBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18776E16-DDF9-4CC8-9DE4-AF820EF8C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AD122E-A409-4880-8F47-D5E83D62C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C862CF6-66E8-4BE7-A1D5-A27354365D8C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
   </si>
   <si>
     <t>OnItemObtain</t>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Def</t>
@@ -484,7 +480,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -515,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -531,14 +527,14 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
@@ -557,14 +553,14 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="1">
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -578,19 +574,19 @@
         <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -609,14 +605,14 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -630,19 +626,19 @@
         <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
+      <c r="D6" s="1">
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -661,14 +657,14 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+      <c r="D7" s="1">
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -682,19 +678,19 @@
         <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -708,19 +704,19 @@
         <v>10008</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -739,14 +735,14 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>

--- a/Excel/EposBuff.xlsx
+++ b/Excel/EposBuff.xlsx
@@ -5,30 +5,40 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AD122E-A409-4880-8F47-D5E83D62C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71B1556-5207-4849-AC4B-E3A548A21C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C862CF6-66E8-4BE7-A1D5-A27354365D8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0C862CF6-66E8-4BE7-A1D5-A27354365D8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="77">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,13 +97,210 @@
   <si>
     <t>BuffCondition</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>// 스페이드 1단계 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">천 방어구 획득 시, 추가 부여 효과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초 공격력 상승</t>
+  </si>
+  <si>
+    <t>원거리 무기 사용 시, 추가 공격력</t>
+  </si>
+  <si>
+    <t>원거리 무기 사용 시, 추가 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천 방어구 획득 시 추가 효과 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초 공격력 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">천 방어구 획득 시 부여 받는 방어력 (%) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초 공격력 (%)</t>
+  </si>
+  <si>
+    <t>원거리 공격 시, 데미지 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초 공격력 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 스페이드 2단계 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 스페이드 3단계 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 스페이드 4단계 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 스페이드 5단계 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 스페이드 수집 완료 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 하트 1단계 효과</t>
+  </si>
+  <si>
+    <t>// 하트 2단계 효과</t>
+  </si>
+  <si>
+    <t>// 하트 3단계 효과</t>
+  </si>
+  <si>
+    <t>// 하트 4단계 효과</t>
+  </si>
+  <si>
+    <t>// 하트 5단계 효과</t>
+  </si>
+  <si>
+    <t>// 하트 수집 완료 효과</t>
+  </si>
+  <si>
+    <t>// 클로버 수집 완료 효과</t>
+  </si>
+  <si>
+    <t>// 클로버 5단계 효과</t>
+  </si>
+  <si>
+    <t>// 클로버 4단계 효과</t>
+  </si>
+  <si>
+    <t>// 클로버 3단계 효과</t>
+  </si>
+  <si>
+    <t>// 클로버 2단계 효과</t>
+  </si>
+  <si>
+    <t>// 클로버 1단계 효과</t>
+  </si>
+  <si>
+    <t>// 다이아 1단계 효과</t>
+  </si>
+  <si>
+    <t>// 다이아 2단계 효과</t>
+  </si>
+  <si>
+    <t>// 다이아 3단계 효과</t>
+  </si>
+  <si>
+    <t>// 다이아 4단계 효과</t>
+  </si>
+  <si>
+    <t>// 다이아 5단계 효과</t>
+  </si>
+  <si>
+    <t>// 다이아 수집 완료 효과</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기초 방어력 상승 </t>
+  </si>
+  <si>
+    <t>가죽 방어구 획득 시, 추가 부여 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기초 방어력 상승 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 무기 획득 시, 추가 공격력</t>
+  </si>
+  <si>
+    <t>근거리 무기 획득 시, 추가 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 방어구 획득 시 부여받는 방어력 (%)</t>
+  </si>
+  <si>
+    <t>판금 방어구 획득 시, 추가 부여 효과</t>
+  </si>
+  <si>
+    <t>기초 방어력 상승</t>
+  </si>
+  <si>
+    <t>판금  방어구 획득 시 부여 받는 방어력 (%)</t>
+  </si>
+  <si>
+    <t>결과 점수 증가 배율 부여</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최대 체력 상승 </t>
+  </si>
+  <si>
+    <t>근거리 공격 시, 리바운드 피해 (%)</t>
+  </si>
+  <si>
+    <t>시야 능력치 증가</t>
+  </si>
+  <si>
+    <t>전체 방어구 획득 시, 추가 부여 효과</t>
+  </si>
+  <si>
+    <t>근거리 무기 획득 시 추가 공격력</t>
+  </si>
+  <si>
+    <t>전체 방어구 획득 시 추가 효과 부여</t>
+  </si>
+  <si>
+    <t>방어구 획득 시 추가 부여 방어력</t>
+  </si>
+  <si>
+    <t>기초 방어력 (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">결과 점수 증가 배율 </t>
+  </si>
+  <si>
+    <t>최대 체력 (%)</t>
+  </si>
+  <si>
+    <t>점수 재화 획득 시 증가(%)</t>
+  </si>
+  <si>
+    <t>OnMeleeAttack</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>Sight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +316,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +338,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,13 +380,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,6 +403,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,21 +734,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E493D4-484A-4A72-8290-AD51E77EAA33}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
@@ -528,117 +786,105 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
+        <v>1050006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f>A3+1</f>
+        <v>10002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>10005</v>
+        <f>A5</f>
+        <v>10002</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -647,61 +893,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f>A6+1</f>
+        <v>10003</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
       <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1050006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>10008</v>
+        <f>A8</f>
+        <v>10003</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -710,152 +944,1777 @@
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f>A9+1</f>
+        <v>10004</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f>A11</f>
+        <v>10004</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f>A12+1</f>
+        <v>10005</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f>A14</f>
+        <v>10005</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1050006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f>A15</f>
+        <v>10005</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f>A16+1</f>
+        <v>10006</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f>A18</f>
+        <v>10006</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1050006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f>A19</f>
+        <v>10006</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f>A20+1</f>
+        <v>10007</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1050007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" ref="A23:A24" si="0">A22</f>
+        <v>10007</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>10007</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f>A23+1</f>
+        <v>10008</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f>A26</f>
+        <v>10008</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f>A27+1</f>
         <v>10009</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1050007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f t="shared" ref="A30:A31" si="1">A29</f>
+        <v>10009</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>10009</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f>A30+1</f>
+        <v>10010</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f>A33</f>
+        <v>10010</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f>A34+1</f>
+        <v>10011</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:A39" si="2">A36</f>
+        <v>10011</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="2"/>
+        <v>10011</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="2"/>
+        <v>10011</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f>A39+1</f>
+        <v>10012</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1050007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f>A41</f>
+        <v>10012</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f>A42+1</f>
+        <v>10013</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1050008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" ref="A45:A46" si="3">A44</f>
+        <v>10013</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <f t="shared" si="3"/>
+        <v>10013</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <f>A46+1</f>
+        <v>10014</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <f>A48</f>
+        <v>10014</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f>A49+1</f>
+        <v>10015</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1050008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f>A51</f>
+        <v>10015</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f>A52+1</f>
+        <v>10016</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <f>A54</f>
+        <v>10016</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <f>A55+1</f>
+        <v>10017</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1050008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f>A57</f>
+        <v>10017</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <f>A58+1</f>
+        <v>10018</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1050008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <f t="shared" ref="A61:A63" si="4">A60</f>
+        <v>10018</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <f t="shared" si="4"/>
+        <v>10018</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <f t="shared" si="4"/>
+        <v>10018</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <f>A63+1</f>
+        <v>10019</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <f>A65</f>
+        <v>10019</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>10010</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>10011</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>10012</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>10013</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <f>A66+1</f>
+        <v>10020</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <f>A68</f>
+        <v>10020</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <f>A69+1</f>
+        <v>10021</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <f>A71</f>
+        <v>10021</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <f>A72+1</f>
+        <v>10022</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <f t="shared" ref="A75:A76" si="5">A74</f>
+        <v>10022</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <f t="shared" si="5"/>
+        <v>10022</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <f>A76+1</f>
+        <v>10023</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <f t="shared" ref="A79:A80" si="6">A78</f>
+        <v>10023</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <f t="shared" si="6"/>
+        <v>10023</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="1">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <f>A80+1</f>
+        <v>10024</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="1">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f t="shared" ref="A83:A85" si="7">A82</f>
+        <v>10024</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f t="shared" si="7"/>
+        <v>10024</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="1">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f t="shared" si="7"/>
+        <v>10024</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{BB95866E-4EA7-4509-BA68-6014B99F9F46}">
       <formula1>"OnRangeAttack,         OnMeleeAttack,         OnHit,         OnItemObtain,         None"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{1CC56D8B-9271-44C5-ABE0-E5F2C858BE3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E1048576" xr:uid="{1CC56D8B-9271-44C5-ABE0-E5F2C858BE3D}">
       <formula1>"MaxHp, Atk, AtkRange, Def, DmgReduce, CritProb, CritDmg, MoveSpeed, Sight,Damage"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{35EA2EBA-16B5-497D-84E6-F4EB377C617A}">
@@ -864,7 +2723,339 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{3B4D799E-780D-4066-98DE-A38358936D2B}">
       <formula1>"StatBuff,ItemBuff"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E86" xr:uid="{104E205A-2B9F-40E2-BF34-3FB36A69F53A}">
+      <formula1>"MaxHp, Atk, AtkRange, Def, DmgReduce, CritProb, CritDmg, MoveSpeed, Sight,Damage, Point"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282375ED-E799-474A-B544-7B24F1AEF27F}">
+  <dimension ref="B1:B85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>